--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1585615219235991</v>
+        <v>0.1516862323536742</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07832156254246586</v>
+        <v>0.0474568657775401</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0343568530482971</v>
+        <v>0.09717974856167981</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07982000214993916</v>
+        <v>0.05114840441910328</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06589163010411918</v>
+        <v>0.01910628080270288</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0275227605416762</v>
+        <v>0.05641462768209785</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008777963366835589</v>
+        <v>0.0911826764069727</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07448821471741249</v>
+        <v>0.04838451961874742</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001677664468346529</v>
+        <v>0.001368844611626828</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07945424894622261</v>
+        <v>0.0156908598785899</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03575398400809422</v>
+        <v>0.007417648104418087</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08109599140372102</v>
+        <v>0.04634636977938805</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.04145259301460778</v>
+        <v>0.02653187200491615</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07969049238168663</v>
+        <v>0.08495828581602712</v>
       </c>
       <c r="S2" t="n">
-        <v>0.006194712631283428</v>
+        <v>0.05514074324313453</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0615288729861635</v>
+        <v>0.02614165032227421</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002031646765683551</v>
+        <v>0.001347286989910328</v>
       </c>
       <c r="V2" t="n">
-        <v>0.009685187188721793</v>
+        <v>0.007897243201968728</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01904935347385811</v>
+        <v>0.08532824370052522</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03045211141022102</v>
+        <v>0.03191432664059999</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.00708637367563507</v>
+        <v>0.03297899487639711</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.06697818332879407</v>
+        <v>0.07393810837974939</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04865409631758093</v>
+        <v>0.08222334613453268</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0600355015286342</v>
+        <v>0.009903053047097807</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1547567649384625</v>
+        <v>0.10559013179121</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5502631014403375</v>
+        <v>0.2153838957569487</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01002331501466415</v>
+        <v>0.006012819897820504</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0184897062349405</v>
+        <v>0.05327142621692853</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08280856676483289</v>
+        <v>0.06462838519460526</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02871613296244522</v>
+        <v>0.07225668916140904</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07961651772063337</v>
+        <v>0.02586504928267359</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0703298230694213</v>
+        <v>0.05426913609546608</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06501748702682911</v>
+        <v>0.04551340232325497</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06916240079474623</v>
+        <v>0.005211951510966401</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0123011016980508</v>
+        <v>0.07250598826010797</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01852123701024243</v>
+        <v>0.04771243451386253</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06529080632849536</v>
+        <v>0.06585436366262702</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0009062774238496622</v>
+        <v>0.07217320956601996</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05361617335617746</v>
+        <v>0.03571921960361438</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05625286990838203</v>
+        <v>0.06356680044852379</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03550817906842492</v>
+        <v>0.06886460625467471</v>
       </c>
       <c r="U3" t="n">
-        <v>2.406862140672112e-05</v>
+        <v>6.827816756797664e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06739299584541275</v>
+        <v>0.0475745182357839</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02054302349383915</v>
+        <v>0.01680693593115822</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04584818801179517</v>
+        <v>0.01977523425642872</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.08269495915402982</v>
+        <v>0.07160149595678938</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.04680483726139207</v>
+        <v>0.02500563066480017</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0307862704935098</v>
+        <v>0.06313861413310429</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.03934506273647929</v>
+        <v>0.002665261012623783</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.08808861043974209</v>
+        <v>0.1058412693455825</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.231075394576317</v>
+        <v>0.2125451649460912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05553878251977188</v>
+        <v>0.06475166251683126</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007594049869585297</v>
+        <v>0.01083252872351971</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0328672924487266</v>
+        <v>0.02799932740110173</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07331687042570507</v>
+        <v>0.02163406516500886</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0433557923931801</v>
+        <v>0.1089950883541914</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07559862192333595</v>
+        <v>0.01260125862276461</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007474533649471294</v>
+        <v>0.01308214296830905</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01251806260129182</v>
+        <v>0.0479728769041454</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05409385349865225</v>
+        <v>0.06362536745264283</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07921611172648843</v>
+        <v>0.05436145790546645</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0131927587792411</v>
+        <v>0.009471012521783478</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001906800522774022</v>
+        <v>0.005609726622395107</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09351943079971518</v>
+        <v>0.09762631009800021</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04236512918074493</v>
+        <v>0.09101635457178184</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01997831769467098</v>
+        <v>0.007209939323409091</v>
       </c>
       <c r="U4" t="n">
-        <v>0.005620569378454611</v>
+        <v>0.0220295541617157</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01831106771385751</v>
+        <v>0.001960069002407517</v>
       </c>
       <c r="W4" t="n">
-        <v>0.09271849007655986</v>
+        <v>0.1007540177610462</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08806782924739048</v>
+        <v>0.005436865731413617</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.04714399070505283</v>
+        <v>0.08496942207193246</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09273153009614331</v>
+        <v>0.06124051836522294</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.01029383528586938</v>
+        <v>0.07469663071548455</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.03257627946331716</v>
+        <v>0.01212380303942603</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5617821709827473</v>
+        <v>-0.5537239187016033</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5681963337828714</v>
+        <v>0.514526632450222</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01327406616335694</v>
+        <v>0.07361144542719222</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02043787969201983</v>
+        <v>0.004624415403180734</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09033585837994608</v>
+        <v>0.07124646601755304</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008159281741742016</v>
+        <v>0.07446516824115186</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05337662935932166</v>
+        <v>0.04556735158388678</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05814418946392709</v>
+        <v>0.0496436104522671</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006358778790306282</v>
+        <v>0.06736905102919793</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09172008585254711</v>
+        <v>0.01413112964618442</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02170345138864363</v>
+        <v>0.01578703462640314</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05774653697168657</v>
+        <v>0.02568056136963266</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09760056635725325</v>
+        <v>0.08185038499987256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0001625972982993642</v>
+        <v>0.0002503947079995052</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04862402491053137</v>
+        <v>0.02405436485208795</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04572857408597944</v>
+        <v>0.06329786300134604</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04839965976673408</v>
+        <v>0.0142026603434765</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04440815945629109</v>
+        <v>0.07968018586876077</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03230988712979432</v>
+        <v>0.03228040084687781</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02436824091394632</v>
+        <v>0.009076352332364248</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04438427581463472</v>
+        <v>0.04927993582505587</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04697336634657352</v>
+        <v>0.0565285583998794</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.006527994445845247</v>
+        <v>0.06408721191864206</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.08522027807939378</v>
+        <v>0.02051459374194831</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05403561759122626</v>
+        <v>0.06277085936503918</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6874088845711105</v>
+        <v>-0.6266074489483778</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2683448938641683</v>
+        <v>0.2608177278788518</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007084324657919049</v>
+        <v>0.001141240394469136</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03498573560063728</v>
+        <v>0.0751468557345968</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06852739275764663</v>
+        <v>0.06123139039836408</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09843735070032766</v>
+        <v>0.08522024678516923</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04195304558395554</v>
+        <v>0.01569304737813735</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009392552078369731</v>
+        <v>0.04125172976554899</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02224620749115466</v>
+        <v>0.01161161776934439</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01453463872144765</v>
+        <v>0.01165449448781463</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04660827526689551</v>
+        <v>0.01150587806244219</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08676480036516325</v>
+        <v>0.08188223865263314</v>
       </c>
       <c r="P6" t="n">
-        <v>0.09903132178512393</v>
+        <v>0.03457381130855414</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01257509729711901</v>
+        <v>0.01983498098773375</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09396373303253504</v>
+        <v>0.0212738531395409</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04865406529173934</v>
+        <v>0.06050401805578698</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01014296926911635</v>
+        <v>0.03894725930696941</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08739475224049047</v>
+        <v>0.05329162065614446</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00819324328768715</v>
+        <v>0.01091700454730639</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01428089194493707</v>
+        <v>0.1084806693106208</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09551608810077432</v>
+        <v>0.03939979544410484</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03664850150052017</v>
+        <v>0.03316824200031441</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.004307448040607316</v>
+        <v>0.06110681108170263</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02460846550740834</v>
+        <v>0.04244766704676918</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0341490994784245</v>
+        <v>0.07971552768593199</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2066374060875065</v>
+        <v>0.2206606219079868</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3386203495156561</v>
+        <v>0.3246573726195114</v>
       </c>
       <c r="F7" t="n">
-        <v>4.300769733621249e-06</v>
+        <v>1.431172354191209e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06398320429660177</v>
+        <v>0.04531642171972106</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03080551566721794</v>
+        <v>0.03945243312156886</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01092742025761323</v>
+        <v>0.07330369259319323</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06544116975905213</v>
+        <v>0.07358513748773834</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04627034514579959</v>
+        <v>0.04830863261517997</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02573215438400374</v>
+        <v>0.07838153074010312</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1103933409126195</v>
+        <v>0.01915971498706175</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01913029420033014</v>
+        <v>0.009969912399384856</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02796016054713161</v>
+        <v>0.0463805506520907</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02761163413738318</v>
+        <v>0.04678207742634782</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.06261460056411523</v>
+        <v>0.0553919110684559</v>
       </c>
       <c r="R7" t="n">
-        <v>0.08521422810344211</v>
+        <v>0.0481457151110468</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001755698558230871</v>
+        <v>0.01100376458201473</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07025693451435179</v>
+        <v>0.06422301929814264</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05678860148059203</v>
+        <v>0.02936691527295861</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05762555337096938</v>
+        <v>0.01761574106046239</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07148391025529657</v>
+        <v>0.02388654090330861</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02351082130893118</v>
+        <v>0.01914250943409345</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02746540136060739</v>
+        <v>0.07620593007611209</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.08672970226904148</v>
+        <v>0.04757762506523213</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01359748314399833</v>
+        <v>0.0518238716375259</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01469752499293726</v>
+        <v>0.07496204102471511</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.2599412694188773</v>
+        <v>0.2406162607008728</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2758227033900995</v>
+        <v>0.2711038021746487</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08765055587923297</v>
+        <v>0.001803868831949531</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01289396320698269</v>
+        <v>0.026967494261851</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07495747839810213</v>
+        <v>0.03869364481150564</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07783913418137298</v>
+        <v>0.01739404730957721</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02766733041362985</v>
+        <v>0.0001400805058499874</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02017193306314847</v>
+        <v>0.01852051616130964</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007108297125320994</v>
+        <v>0.05297334055762449</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02803293377987173</v>
+        <v>0.05216088112482541</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01037495805417442</v>
+        <v>0.007417917809968201</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02125185829329647</v>
+        <v>0.02692381715548381</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08758145479476268</v>
+        <v>0.07973222797325454</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04490635911773198</v>
+        <v>0.0637798439383787</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07675700821504768</v>
+        <v>0.0833567942313839</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07215840525157438</v>
+        <v>0.06715891806717358</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08939251018840436</v>
+        <v>0.06228586416266238</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004537241380639007</v>
+        <v>0.004408509777122927</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04099023977704212</v>
+        <v>0.0190680167161592</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06828222011162974</v>
+        <v>0.05596327487380559</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04727479076277945</v>
+        <v>0.04697321985598325</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0767162910229609</v>
+        <v>0.08144195369882547</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01323909555674906</v>
+        <v>0.08345024746168048</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.004165816344907061</v>
+        <v>0.06858511411201697</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01244759249342763</v>
+        <v>0.04080040660160807</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.07796153811053955</v>
+        <v>0.07863868342346461</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.151757112154494</v>
+        <v>1.357692249314231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06421523137631407</v>
+        <v>0.009588474068156331</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02026207379050356</v>
+        <v>0.02037529870729108</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01515918770005771</v>
+        <v>0.002147726741505304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05016238692429711</v>
+        <v>0.02062116486750024</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09056043051847933</v>
+        <v>0.09580898713201977</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009144845167101269</v>
+        <v>0.01093840077735336</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07801752010755968</v>
+        <v>0.006877225746657215</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02232127540227626</v>
+        <v>0.01554029675876794</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03793935436169717</v>
+        <v>0.0606812482340857</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02258627637188516</v>
+        <v>0.09041839343828362</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002935080019720866</v>
+        <v>0.02457020374493178</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02715917999706396</v>
+        <v>0.01141164977213203</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03526403086160042</v>
+        <v>0.04063718507558674</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04945631071991994</v>
+        <v>0.06384797291035609</v>
       </c>
       <c r="T9" t="n">
-        <v>0.06768405263321213</v>
+        <v>0.03099573841347841</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08511358232374963</v>
+        <v>0.1002885122096619</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0884595153596069</v>
+        <v>0.1001446125901848</v>
       </c>
       <c r="W9" t="n">
-        <v>0.05379306960115383</v>
+        <v>0.006364450066702301</v>
       </c>
       <c r="X9" t="n">
-        <v>0.05475083854762337</v>
+        <v>0.0744065039329949</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001320856802354156</v>
+        <v>0.06925292296843111</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.04100474873492417</v>
+        <v>0.005285077656682713</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.006702647514736261</v>
+        <v>0.04890952946287138</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0759875051641629</v>
+        <v>0.09088842472436513</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2227962562095962</v>
+        <v>0.2005975577787466</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3459082557454016</v>
+        <v>0.3616344432819751</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06551434754667342</v>
+        <v>0.01464779175907569</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04941947283913204</v>
+        <v>0.06608895773530432</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0259058383984687</v>
+        <v>0.02124299733817423</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09730373227434758</v>
+        <v>0.07564021434336336</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07957086910924321</v>
+        <v>0.08517499814507409</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01101362782435268</v>
+        <v>0.01317693423953115</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0291657377379949</v>
+        <v>0.02690699895999188</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01701398980157724</v>
+        <v>0.01813311862336738</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002656580294536277</v>
+        <v>0.04044958329284457</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09519924794218532</v>
+        <v>0.03461155693223461</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01953820557435953</v>
+        <v>0.08437342396181502</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03647718995734468</v>
+        <v>0.0532518422726373</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09945853969938737</v>
+        <v>0.03397881432332799</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0687419484685677</v>
+        <v>0.03874319028024392</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03828322304914853</v>
+        <v>0.04804255270988783</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006429156179847664</v>
+        <v>0.005828334532462304</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0008831060492012056</v>
+        <v>0.005741529155274515</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02126548504937735</v>
+        <v>0.07898714042016589</v>
       </c>
       <c r="X10" t="n">
-        <v>0.05938618748221594</v>
+        <v>0.04463415723557951</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.08832035994979537</v>
+        <v>0.06060788099356531</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.05585346617644953</v>
+        <v>0.0512795818965148</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.004884130422500518</v>
+        <v>0.07681114831281979</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02771555817329344</v>
+        <v>0.02164725253674448</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1211140318037889</v>
+        <v>-0.1458836242684984</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.590166968811061</v>
+        <v>1.551432996484049</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04008350517081852</v>
+        <v>0.05057865895655824</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05188449287969749</v>
+        <v>0.08745545845606476</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05149436600058748</v>
+        <v>0.04619481452333297</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06227393988369379</v>
+        <v>0.06135248633656984</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04325026364551419</v>
+        <v>0.05608134405945827</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0146767185792486</v>
+        <v>0.02417056885307235</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01063972297500598</v>
+        <v>0.008436360137666661</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06305072237959221</v>
+        <v>0.01772463550258747</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04720571891992095</v>
+        <v>0.07850057163570406</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05736470543997062</v>
+        <v>0.07232604646173837</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08081468368073071</v>
+        <v>0.06217894415151568</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03804493780539251</v>
+        <v>0.005283381715900174</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07610451884355122</v>
+        <v>0.0826958393684907</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01142630296434129</v>
+        <v>0.00726744758997803</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0125503449722913</v>
+        <v>0.006184503361753948</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003528899087997629</v>
+        <v>0.005962326620462778</v>
       </c>
       <c r="V11" t="n">
-        <v>0.09070153730918201</v>
+        <v>0.08799677964652237</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07290738257202958</v>
+        <v>0.03920507743548229</v>
       </c>
       <c r="X11" t="n">
-        <v>0.07264845549190886</v>
+        <v>0.02749837905602316</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.08746179398277514</v>
+        <v>0.04597744609076355</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.008146011894914072</v>
+        <v>0.05314516660198204</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0004996729784498968</v>
+        <v>0.068901745228595</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.003241302542385995</v>
+        <v>0.004882018209777142</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1450461245477259</v>
+        <v>-0.1274916552796612</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1820726270398373</v>
+        <v>0.1814639854497637</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02181841229494519</v>
+        <v>0.07309371858123347</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02633339226763628</v>
+        <v>0.03716586075198897</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05967856059411343</v>
+        <v>0.0121527457686649</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1028482340400459</v>
+        <v>0.1161395126188532</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04523833126618673</v>
+        <v>0.01435476555550424</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004572568148033528</v>
+        <v>0.01759816557718071</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0142665381153472</v>
+        <v>0.0002588478604454313</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07606641158776574</v>
+        <v>0.07991424132138372</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01088435233182495</v>
+        <v>0.01598129294906532</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08023905744376571</v>
+        <v>0.06918080799102232</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06471917438685397</v>
+        <v>0.1002788934201628</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05442927742509351</v>
+        <v>0.03276001254324807</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04729553240962638</v>
+        <v>0.1025821075160284</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05502408922215824</v>
+        <v>0.02224234726805837</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01251321872776462</v>
+        <v>0.03635624323232708</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01851336374782017</v>
+        <v>0.01270438224500565</v>
       </c>
       <c r="V12" t="n">
-        <v>0.009340323578046778</v>
+        <v>0.007325531185167865</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07011360923387436</v>
+        <v>0.05058849480074799</v>
       </c>
       <c r="X12" t="n">
-        <v>0.09844679179806244</v>
+        <v>0.04929409353077363</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02290091928069278</v>
+        <v>0.03858013942192622</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.08801569663493695</v>
+        <v>0.04586291705327002</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0007929545811608669</v>
+        <v>0.04269120616473592</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0159491908842442</v>
+        <v>0.02289367264320559</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2079524801864004</v>
+        <v>0.1819993308417833</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2239497662527082</v>
+        <v>0.2324664244715633</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02710970811522085</v>
+        <v>0.09262875191708099</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07266486809659603</v>
+        <v>0.06579436679343205</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08613190982728111</v>
+        <v>0.01541064909591336</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04050490008074673</v>
+        <v>0.04098037778554472</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1009410510982278</v>
+        <v>0.0402357434685173</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04347251304362162</v>
+        <v>0.1079114111779579</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01342766194324714</v>
+        <v>0.006241151501406907</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01903225248113702</v>
+        <v>0.01006265372070882</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04634544012074449</v>
+        <v>0.07340065480665131</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07229252355534065</v>
+        <v>0.008431805525958694</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07247164965936968</v>
+        <v>0.01226672222459599</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01975024707517548</v>
+        <v>0.01359139884251402</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03764695423969553</v>
+        <v>0.07178006015642961</v>
       </c>
       <c r="S13" t="n">
-        <v>0.07295326595930926</v>
+        <v>0.08660248359828719</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01734006231476393</v>
+        <v>0.005815883316081613</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007964368383270569</v>
+        <v>0.05100055708903871</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01698658244270582</v>
+        <v>0.006424462717242755</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1031103905588533</v>
+        <v>0.08993048022154286</v>
       </c>
       <c r="X13" t="n">
-        <v>0.03446024204211934</v>
+        <v>0.08580877821649698</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.001232565988956557</v>
+        <v>0.01234604912363849</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.007836657351776624</v>
+        <v>0.01165182713805858</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.07608823505623297</v>
+        <v>0.07938753502207781</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0102359505656074</v>
+        <v>0.0122961965408233</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2123747120094984</v>
+        <v>0.2401270006740394</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2165533736640932</v>
+        <v>0.2267464669484835</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04612440512487446</v>
+        <v>0.007415825418354564</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0504472969871186</v>
+        <v>0.09352007422579868</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01967371779725783</v>
+        <v>0.058062524475128</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0878489359314574</v>
+        <v>0.01946159502420697</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03999190653303158</v>
+        <v>0.01974100936778341</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04804662682717709</v>
+        <v>0.06734176819444668</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09193219701533449</v>
+        <v>0.02310804256631157</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06733032338684714</v>
+        <v>0.02180340778849616</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04250863316711606</v>
+        <v>0.01231249761260931</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07882024717703111</v>
+        <v>0.07784167071016594</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05969371850207766</v>
+        <v>0.06072394199449537</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.04874906989447848</v>
+        <v>0.0279174709932449</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08234698586995151</v>
+        <v>0.08465275974637297</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06780716583711306</v>
+        <v>0.06567276874022718</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02283640373506287</v>
+        <v>0.01199164914984594</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01849116795759806</v>
+        <v>0.05311317055750504</v>
       </c>
       <c r="V14" t="n">
-        <v>0.004812332377494977</v>
+        <v>0.07877913897210582</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01065124188915715</v>
+        <v>0.007505291417311747</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0003262846135868997</v>
+        <v>0.004082877950821634</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02506944996813755</v>
+        <v>0.02903452022460525</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.07961416087856876</v>
+        <v>0.096452985282625</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.004665961563997586</v>
+        <v>0.07797380597765277</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.002211766965529744</v>
+        <v>0.001491203609885024</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2197569868218955</v>
+        <v>0.2015489830203613</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.097270769259777</v>
+        <v>1.145061146610533</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00986191091006996</v>
+        <v>0.001904445656825304</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06206793292734343</v>
+        <v>0.06532353428797152</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001128487589624302</v>
+        <v>0.02002497502115332</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04574814309044745</v>
+        <v>0.05475510565766169</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05118965323994159</v>
+        <v>0.105223803592266</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04242128702769137</v>
+        <v>0.02051402212075304</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03030847443774897</v>
+        <v>0.04363832916260099</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06750758891729924</v>
+        <v>0.02533430222505124</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09233500853828186</v>
+        <v>0.01563538757371005</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04776139847827778</v>
+        <v>0.06833912233611765</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05214546068617492</v>
+        <v>0.1005116358501722</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0108041131477749</v>
+        <v>0.06269830153918837</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08972590964201212</v>
+        <v>0.03833844395037914</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0540238825239658</v>
+        <v>0.06145283063883641</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0003931847470925632</v>
+        <v>0.001812712766976288</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09094823323362253</v>
+        <v>0.04019610843540105</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01093068744334094</v>
+        <v>0.02104141529197307</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01099910472124456</v>
+        <v>0.001652817659710915</v>
       </c>
       <c r="X15" t="n">
-        <v>0.006953204560505708</v>
+        <v>0.00675567727815729</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05489459394806386</v>
+        <v>0.0601913369299783</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04098478568805568</v>
+        <v>0.0711113621696514</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.03975697884007152</v>
+        <v>0.02225162520107314</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.08710997566134895</v>
+        <v>0.09129270465439175</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1850610174026134</v>
+        <v>0.1805776681175887</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2708082627086152</v>
+        <v>0.2404393034204569</v>
       </c>
       <c r="F16" t="n">
-        <v>0.009295408278654693</v>
+        <v>0.1000319155519975</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0848966414929799</v>
+        <v>0.08155150114882678</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05865538625646424</v>
+        <v>0.02507574332997812</v>
       </c>
       <c r="I16" t="n">
-        <v>0.004936376531911703</v>
+        <v>0.009278798432348698</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07927655176711296</v>
+        <v>0.007010883673754701</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0079090867139046</v>
+        <v>0.01133499474339628</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01656608837580437</v>
+        <v>0.001005443323803074</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03864230757826959</v>
+        <v>0.04933912640273837</v>
       </c>
       <c r="N16" t="n">
-        <v>0.08239398479496317</v>
+        <v>0.1055443420040442</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0266880785539602</v>
+        <v>0.06892780539542243</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03056619442300148</v>
+        <v>0.01795574026305152</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06558739241301334</v>
+        <v>0.06513602006801947</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08358018952558385</v>
+        <v>0.05085900836280677</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001807269348775738</v>
+        <v>0.006988101689709841</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02363301016467834</v>
+        <v>0.01021380372508409</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008645581901528769</v>
+        <v>0.0009763728813966206</v>
       </c>
       <c r="V16" t="n">
-        <v>0.00750650100163682</v>
+        <v>0.001201385095473313</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06765999916886987</v>
+        <v>0.04994002852397916</v>
       </c>
       <c r="X16" t="n">
-        <v>0.08260384405924447</v>
+        <v>0.1084189723274963</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.06199670019982177</v>
+        <v>0.06089458289254675</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.07890075373873619</v>
+        <v>0.1079929208371941</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.04294725520587588</v>
+        <v>0.02140620193205679</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03530539850520813</v>
+        <v>0.03891630739487516</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.02122656298218817</v>
+        <v>-0.04026130921775196</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8785985138782111</v>
+        <v>0.838516763114543</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03217644804922159</v>
+        <v>0.03355916488704135</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03966600510040202</v>
+        <v>0.01748052250437106</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04816688223106424</v>
+        <v>0.07384189314287931</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08201702386478137</v>
+        <v>0.08700913297108144</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05117475190449132</v>
+        <v>0.02311627687224998</v>
       </c>
       <c r="K17" t="n">
-        <v>0.08504173611951979</v>
+        <v>0.07203892188856423</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04049428647297648</v>
+        <v>0.07730371744148865</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08437277773950885</v>
+        <v>0.08677373915682461</v>
       </c>
       <c r="N17" t="n">
-        <v>0.03513247607035805</v>
+        <v>0.06496713009892974</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04371391853659668</v>
+        <v>0.01281494008013863</v>
       </c>
       <c r="P17" t="n">
-        <v>0.005247256727573659</v>
+        <v>0.06314342578381921</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0742624788070025</v>
+        <v>0.01166767839294774</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04330722783647518</v>
+        <v>0.0559306672840113</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08263283240454215</v>
+        <v>0.08008953962318661</v>
       </c>
       <c r="T17" t="n">
-        <v>0.002303463604221363</v>
+        <v>0.002951949344237029</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01384733640498967</v>
+        <v>0.003709042496701283</v>
       </c>
       <c r="V17" t="n">
-        <v>0.001537605269605754</v>
+        <v>0.0006240502296430057</v>
       </c>
       <c r="W17" t="n">
-        <v>0.08465213711388388</v>
+        <v>0.06874159569350584</v>
       </c>
       <c r="X17" t="n">
-        <v>0.00121445445215218</v>
+        <v>0.02500637097408183</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.04371891589688728</v>
+        <v>0.004651338966845354</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.009277881463864886</v>
+        <v>0.08580169895502317</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0646624845758048</v>
+        <v>0.005397158459317587</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.03137961935407636</v>
+        <v>0.04338004475311083</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.04242380798375059</v>
+        <v>0.02735981661359092</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.240426495334823</v>
+        <v>0.2851300633009055</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05779866964037648</v>
+        <v>0.05976604890249666</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06737900515128421</v>
+        <v>0.03747644182112782</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07480300478330827</v>
+        <v>0.006346677900992438</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0130067509947198</v>
+        <v>0.01803357448281062</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02602856660815309</v>
+        <v>0.0735805840742234</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02390679762397116</v>
+        <v>0.06787438449420569</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06596324685646372</v>
+        <v>0.06442040626479816</v>
       </c>
       <c r="M18" t="n">
-        <v>0.09177775638460829</v>
+        <v>0.04926166594385311</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0160041756113465</v>
+        <v>0.04974132281604931</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07903289923261654</v>
+        <v>0.06377871631380498</v>
       </c>
       <c r="P18" t="n">
-        <v>0.08871854671255332</v>
+        <v>0.0563407813188714</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.07379763522046046</v>
+        <v>0.00288934913867839</v>
       </c>
       <c r="R18" t="n">
-        <v>0.00204950220572292</v>
+        <v>0.006153276938853797</v>
       </c>
       <c r="S18" t="n">
-        <v>0.002783642508816048</v>
+        <v>0.00477455360503105</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04056551436404442</v>
+        <v>0.0852302397564291</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03279374578284082</v>
+        <v>0.06274499703461707</v>
       </c>
       <c r="V18" t="n">
-        <v>0.04862676481690521</v>
+        <v>0.006856010778263547</v>
       </c>
       <c r="W18" t="n">
-        <v>0.001786495101908245</v>
+        <v>0.001978911916820866</v>
       </c>
       <c r="X18" t="n">
-        <v>0.05410668919357921</v>
+        <v>0.02818033461107063</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.01914179750823483</v>
+        <v>0.04203751875942602</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01970237664605826</v>
+        <v>0.07540257252389142</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.007816979021270471</v>
+        <v>0.06115805995530188</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.09240943803075771</v>
+        <v>0.07597357064838253</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.07370912920018442</v>
+        <v>0.08810829926943783</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.161094860260998</v>
+        <v>2.820983173012095</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001725375306487709</v>
+        <v>0.07606304595764379</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007786769576175613</v>
+        <v>0.05211912659541648</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0339206070499301</v>
+        <v>0.01166708647062641</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1053623964719295</v>
+        <v>0.02070169390054904</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02512346885611836</v>
+        <v>0.07315327036423409</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01959456382604789</v>
+        <v>0.06450680459687544</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02951261156239493</v>
+        <v>0.06109416378541024</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005543708559770536</v>
+        <v>0.06791557734350948</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01240894688250613</v>
+        <v>0.03096277691878747</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1046321790325573</v>
+        <v>0.01633153936131096</v>
       </c>
       <c r="P19" t="n">
-        <v>0.002382671999596361</v>
+        <v>0.07089696903728591</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05178764404584296</v>
+        <v>0.003166759738838941</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08667434045124686</v>
+        <v>0.06369930384853344</v>
       </c>
       <c r="S19" t="n">
-        <v>3.307160607762493e-05</v>
+        <v>2.312403958239588e-06</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02053651918090501</v>
+        <v>0.03023967189673298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0706283941692991</v>
+        <v>0.01224527516545681</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01390300844136872</v>
+        <v>0.02903716663184544</v>
       </c>
       <c r="W19" t="n">
-        <v>0.06390336686399449</v>
+        <v>0.07119526787596359</v>
       </c>
       <c r="X19" t="n">
-        <v>0.09384887954034213</v>
+        <v>0.02567075836669661</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.106936372059976</v>
+        <v>0.06908052977851976</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03721007268126057</v>
+        <v>0.06189804059597658</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.09176410439325876</v>
+        <v>0.03590266721900207</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01478092744291346</v>
+        <v>0.05245019214682627</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.03079809459438109</v>
+        <v>0.1030911084170129</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1635670760833684</v>
+        <v>0.1614912207036258</v>
       </c>
       <c r="F20" t="n">
-        <v>0.048318122453349</v>
+        <v>0.0774796292825457</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04890460592612565</v>
+        <v>0.02820738155208567</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08930769462522795</v>
+        <v>0.05944331483599694</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006457066714862497</v>
+        <v>0.0272066350619866</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009583117670791281</v>
+        <v>0.02713398348982515</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003074293664227985</v>
+        <v>0.03286401798167215</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08598216024640377</v>
+        <v>0.04627086127020322</v>
       </c>
       <c r="M20" t="n">
-        <v>0.007960587589885604</v>
+        <v>0.02394970419859606</v>
       </c>
       <c r="N20" t="n">
-        <v>0.008293987496873618</v>
+        <v>0.01605730385918882</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07494657826000756</v>
+        <v>0.02628531661150143</v>
       </c>
       <c r="P20" t="n">
-        <v>0.001524697826457738</v>
+        <v>0.01880467049658862</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.009591834139943195</v>
+        <v>0.01684025092851965</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05503665470908034</v>
+        <v>0.07846290212375034</v>
       </c>
       <c r="S20" t="n">
-        <v>0.08243674352375877</v>
+        <v>0.0724146979710746</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05245401032075338</v>
+        <v>0.01957966500805689</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04476073709048964</v>
+        <v>0.06420695248214796</v>
       </c>
       <c r="V20" t="n">
-        <v>0.005477271836577248</v>
+        <v>0.003303544626678575</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0485692175688069</v>
+        <v>0.05087914596682575</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05389367684270405</v>
+        <v>0.06707587575751363</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.05901116195811004</v>
+        <v>0.07690575161315848</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.07423819414873489</v>
+        <v>0.04761644984467184</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0611913637192777</v>
+        <v>0.05027643014579687</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.07175308596535636</v>
+        <v>0.06873551489161496</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1402859380406119</v>
+        <v>0.1187388106597019</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4250334804641618</v>
+        <v>0.4087157524885831</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03538348596023705</v>
+        <v>0.06413050266790471</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03767617834826981</v>
+        <v>0.06085965387263343</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0176338648047126</v>
+        <v>0.0573798808710476</v>
       </c>
       <c r="I21" t="n">
-        <v>0.029893140064531</v>
+        <v>0.06411166495300838</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01819689485927912</v>
+        <v>0.03810719738771644</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02594510249941265</v>
+        <v>0.003230161854118331</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05057744168078009</v>
+        <v>0.05181422752518243</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06683573528082909</v>
+        <v>0.1108642430822283</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1028772934122814</v>
+        <v>0.02321033046677783</v>
       </c>
       <c r="O21" t="n">
-        <v>0.08451963480894954</v>
+        <v>0.01713318616889675</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02974746594724411</v>
+        <v>0.009077181473021204</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01120726491196104</v>
+        <v>0.004729032553067258</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07631987988468422</v>
+        <v>0.07653788193028005</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06264799576684203</v>
+        <v>0.03691713121675224</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02154041526444062</v>
+        <v>0.001924323930331233</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0485043437940911</v>
+        <v>0.03162108448214369</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1129570514458573</v>
+        <v>0.1086641614226678</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01813873708789979</v>
+        <v>0.03161023569895631</v>
       </c>
       <c r="X21" t="n">
-        <v>0.002599069426010974</v>
+        <v>0.06845734888837227</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.04572654328735004</v>
+        <v>0.05926601372950895</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02491250554359095</v>
+        <v>0.02162859595397277</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.024791040314165</v>
+        <v>0.04525322244775423</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0513689156065805</v>
+        <v>0.01347273742365791</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.08096377785341641</v>
+        <v>0.1048707132341026</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2312366495442789</v>
+        <v>0.2421465267813748</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06250856786373749</v>
+        <v>0.01327500537631861</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04581748556353249</v>
+        <v>0.04839750904971669</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07264809603992717</v>
+        <v>0.08048170592443134</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06113680566890022</v>
+        <v>0.0264615046106872</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06003456923835113</v>
+        <v>0.03621716416605607</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04357652579805707</v>
+        <v>0.03558447301927239</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03392247771920379</v>
+        <v>0.05091518714416861</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02142387605312205</v>
+        <v>0.01090944602438824</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04296168483844905</v>
+        <v>0.0900043827531077</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05816530761692051</v>
+        <v>0.07559184473560994</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06576077523968825</v>
+        <v>0.09014597667257358</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.07493896592702662</v>
+        <v>0.1047750432674377</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06708205247490563</v>
+        <v>0.1039088237529122</v>
       </c>
       <c r="S22" t="n">
-        <v>0.004049800336700605</v>
+        <v>0.0008144121511281501</v>
       </c>
       <c r="T22" t="n">
-        <v>0.001697887684330674</v>
+        <v>0.004169242573496789</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07710298877707666</v>
+        <v>0.004061609505251606</v>
       </c>
       <c r="V22" t="n">
-        <v>0.00299365893672876</v>
+        <v>0.002989976427528552</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07698112503278175</v>
+        <v>0.07409895095210195</v>
       </c>
       <c r="X22" t="n">
-        <v>0.03180422191742089</v>
+        <v>0.01503727383639788</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02288246084465234</v>
+        <v>0.02881627498652484</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.04920510706956632</v>
+        <v>0.00730402667258844</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0005933566197156996</v>
+        <v>0.0007097166022897424</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02271220273920493</v>
+        <v>0.09533044979601171</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.06946697460343913</v>
+        <v>0.08880714469767767</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.487807546381627</v>
+        <v>1.575655632677764</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02629324078058021</v>
+        <v>0.04291119914985222</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04262008151824247</v>
+        <v>0.1011122071963119</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0339713051885553</v>
+        <v>0.03664106233159117</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05440709107543027</v>
+        <v>0.08180658131874091</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08218541367207145</v>
+        <v>0.0001706857787947745</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007561159360087922</v>
+        <v>0.04017985540395833</v>
       </c>
       <c r="L23" t="n">
-        <v>0.09488053292376644</v>
+        <v>0.03583168836729626</v>
       </c>
       <c r="M23" t="n">
-        <v>0.05989088666239084</v>
+        <v>0.008839176091315322</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06499547353575356</v>
+        <v>0.01290103001363059</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0871887947432216</v>
+        <v>0.03748754897716719</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04476541915404873</v>
+        <v>0.01155038889120674</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.007541622462832579</v>
+        <v>0.1030276773704883</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03023507279645381</v>
+        <v>0.00970650663820472</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01084404530383996</v>
+        <v>0.02110082249647851</v>
       </c>
       <c r="T23" t="n">
-        <v>0.001218974738676826</v>
+        <v>0.001672813255493146</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06404649966702634</v>
+        <v>0.03290258566184018</v>
       </c>
       <c r="V23" t="n">
-        <v>0.09649693325089248</v>
+        <v>0.1035738393650186</v>
       </c>
       <c r="W23" t="n">
-        <v>0.04430681748464617</v>
+        <v>0.1258999372560392</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03372742206723064</v>
+        <v>0.01400332001871384</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02614270293190359</v>
+        <v>0.110250696026255</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.05646457075702027</v>
+        <v>0.05492803583183641</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.00116971493451513</v>
+        <v>0.005571358983131575</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02904622499081339</v>
+        <v>0.007930983576635272</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.08932610466790158</v>
+        <v>0.1347052698572944</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1549854111702877</v>
+        <v>0.1572711193478302</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07177028580910673</v>
+        <v>0.04665843724371047</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06902644769652137</v>
+        <v>0.08541669959948195</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08565647539072854</v>
+        <v>0.08430437128569442</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06793418025222688</v>
+        <v>0.007892303701070786</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06368008049435282</v>
+        <v>0.03847211931335524</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08654160878368443</v>
+        <v>0.009648943965574535</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07115739186121661</v>
+        <v>0.009158697719651474</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001496628014238145</v>
+        <v>0.0066791981875584</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00264040667439951</v>
+        <v>0.04005967872366083</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004077284463771585</v>
+        <v>0.003285923919596698</v>
       </c>
       <c r="P24" t="n">
-        <v>0.06366295355250126</v>
+        <v>0.07070637326523982</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.07526881576156312</v>
+        <v>0.05093912437045599</v>
       </c>
       <c r="R24" t="n">
-        <v>0.02178586258522719</v>
+        <v>0.08567404527009034</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01043373291225756</v>
+        <v>0.05848062998276106</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01415922630320049</v>
+        <v>0.03634308894917902</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08015205003415196</v>
+        <v>0.0790663528484507</v>
       </c>
       <c r="V24" t="n">
-        <v>0.02027257789437796</v>
+        <v>0.07735504614553004</v>
       </c>
       <c r="W24" t="n">
-        <v>0.001869923224164312</v>
+        <v>0.02819688490884678</v>
       </c>
       <c r="X24" t="n">
-        <v>0.04563017559440215</v>
+        <v>0.08014390126893312</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.03974874796469165</v>
+        <v>0.009181824812551998</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06814418733070161</v>
+        <v>0.06397325448513777</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02163144415962091</v>
+        <v>0.01593346507553038</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0132595132428933</v>
+        <v>0.01242963495793816</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.2175563572026421</v>
+        <v>-0.2139099522638939</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5324373498242598</v>
+        <v>0.3292510855956301</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0651744946312131</v>
+        <v>0.06793482473396202</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07724197946633134</v>
+        <v>0.04540697985038891</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01370121983263524</v>
+        <v>0.04587797870295927</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02168266043064905</v>
+        <v>0.01571629829672654</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05854147266459536</v>
+        <v>0.04867742285304526</v>
       </c>
       <c r="K25" t="n">
-        <v>0.09153836110617648</v>
+        <v>0.02898760878157646</v>
       </c>
       <c r="L25" t="n">
-        <v>0.007647014112601998</v>
+        <v>0.006212133833414742</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1177376653651673</v>
+        <v>0.06873362553647194</v>
       </c>
       <c r="N25" t="n">
-        <v>0.00418059433476406</v>
+        <v>0.0385086385722016</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001827819144462071</v>
+        <v>0.0005099793931606607</v>
       </c>
       <c r="P25" t="n">
-        <v>0.06631466446377864</v>
+        <v>0.05881461445831541</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.07843410964850793</v>
+        <v>0.07655897201201714</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02316818479159411</v>
+        <v>0.06536456103937469</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01705317303158406</v>
+        <v>0.0288737721349206</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02128930067252104</v>
+        <v>0.06174002878382284</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06052441959557883</v>
+        <v>0.05054818152420215</v>
       </c>
       <c r="V25" t="n">
-        <v>0.07486832555202876</v>
+        <v>0.08258900546156793</v>
       </c>
       <c r="W25" t="n">
-        <v>0.003620252684239077</v>
+        <v>0.01106035341520227</v>
       </c>
       <c r="X25" t="n">
-        <v>0.05024167133804234</v>
+        <v>0.02496520838081975</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.08644454978777254</v>
+        <v>0.08285675422136825</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.04831447148441011</v>
+        <v>0.02383818927534562</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.003906248711635205</v>
+        <v>0.006716902010318902</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.006547347149711238</v>
+        <v>0.05950796672881705</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.1399798605763129</v>
+        <v>-0.1925158560902323</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1206681265524302</v>
+        <v>0.1196038878462247</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06319791045689631</v>
+        <v>0.05387308941877064</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04546601895819986</v>
+        <v>0.08323204507415728</v>
       </c>
       <c r="H26" t="n">
-        <v>0.005093716684396731</v>
+        <v>0.01013058981376554</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0317999469251274</v>
+        <v>0.02680080360952095</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003072682545754706</v>
+        <v>0.09703127559304207</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0396234227904888</v>
+        <v>0.005932143633012302</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0280077701254346</v>
+        <v>0.004199931560988643</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01662578041937324</v>
+        <v>0.002430664051661882</v>
       </c>
       <c r="N26" t="n">
-        <v>0.007403754839498392</v>
+        <v>0.056683837909196</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04440365984199456</v>
+        <v>0.02392279342326674</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07618738162186381</v>
+        <v>0.08354756905704913</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.07981020601095613</v>
+        <v>0.07924030855585039</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02766735482231581</v>
+        <v>0.01486257832658815</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02229898679939839</v>
+        <v>0.04070035074534736</v>
       </c>
       <c r="T26" t="n">
-        <v>0.08087610818330471</v>
+        <v>0.01365855635809954</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07707548355763449</v>
+        <v>0.005744347380662457</v>
       </c>
       <c r="V26" t="n">
-        <v>0.04050880198214189</v>
+        <v>0.02299539539847611</v>
       </c>
       <c r="W26" t="n">
-        <v>0.06259782538641044</v>
+        <v>0.07385696638284728</v>
       </c>
       <c r="X26" t="n">
-        <v>0.09655365233709461</v>
+        <v>0.08561342226761849</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.006703318076910893</v>
+        <v>0.003664116604117006</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.03862681722905847</v>
+        <v>0.05743426953651226</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.09038744883275611</v>
+        <v>0.06684041080904832</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01601195157298967</v>
+        <v>0.08760453449040174</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1727518825739199</v>
+        <v>0.1725951200400995</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2294651333954694</v>
+        <v>0.1735373407761849</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01309255174374586</v>
+        <v>0.09564878743748931</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00783761481446677</v>
+        <v>0.0817393983188085</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08650605101935169</v>
+        <v>0.03447757317667741</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03413445117394333</v>
+        <v>0.03021907401184989</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005087417758112574</v>
+        <v>0.02194626746804133</v>
       </c>
       <c r="K27" t="n">
-        <v>0.004010947390022377</v>
+        <v>0.05611590707234815</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01755512881530141</v>
+        <v>0.04698404117812611</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1451686757124788</v>
+        <v>0.1138930436615049</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1384823750812015</v>
+        <v>0.03869052070206104</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02762254557027016</v>
+        <v>0.005268296167094651</v>
       </c>
       <c r="P27" t="n">
-        <v>0.05507068743602993</v>
+        <v>0.03312074083205768</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02808020086165084</v>
+        <v>0.05982759430062361</v>
       </c>
       <c r="R27" t="n">
-        <v>0.008563743545841674</v>
+        <v>0.05553136657241683</v>
       </c>
       <c r="S27" t="n">
-        <v>0.008842521981693101</v>
+        <v>0.003739472747393792</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01287517663853613</v>
+        <v>0.009109852804192383</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08423500180235247</v>
+        <v>0.09704725604822444</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03238692286649022</v>
+        <v>0.08777366771859932</v>
       </c>
       <c r="W27" t="n">
-        <v>0.05370429516055945</v>
+        <v>0.008882604423830535</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05385656968800422</v>
+        <v>0.0506751720319597</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01166614559266577</v>
+        <v>0.02263185486212138</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03076891974750224</v>
+        <v>0.003000399672977135</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.07627531381332105</v>
+        <v>0.01663373674211693</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.06417674178645828</v>
+        <v>0.02704337204948501</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.147846135382638</v>
+        <v>0.1660360584265225</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1397829996328551</v>
+        <v>0.1474351097026994</v>
       </c>
       <c r="F28" t="n">
-        <v>0.006233557447118331</v>
+        <v>0.0237088115205915</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02420424228017966</v>
+        <v>0.007055298503803827</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03537741386309842</v>
+        <v>0.01521352198832261</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0356410259132683</v>
+        <v>0.04183311895893246</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04695491797278924</v>
+        <v>0.02650411385299056</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04129194049494641</v>
+        <v>0.08018084850340237</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05469265060353062</v>
+        <v>0.08334501943384702</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06422084397020697</v>
+        <v>0.01149534995345526</v>
       </c>
       <c r="N28" t="n">
-        <v>0.06792928998138346</v>
+        <v>0.0651223755504723</v>
       </c>
       <c r="O28" t="n">
-        <v>0.076692048815201</v>
+        <v>0.08351590665109705</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0638231513231083</v>
+        <v>0.09068170629717169</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.06725373303708712</v>
+        <v>0.05078938538195961</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07091493044921261</v>
+        <v>0.0821495519142702</v>
       </c>
       <c r="S28" t="n">
-        <v>0.05545445995342912</v>
+        <v>0.0917618239673517</v>
       </c>
       <c r="T28" t="n">
-        <v>0.02142593369369317</v>
+        <v>0.006323186241291811</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05922263701457941</v>
+        <v>0.06341448663669444</v>
       </c>
       <c r="V28" t="n">
-        <v>0.00504477406103811</v>
+        <v>0.01842731006068709</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06900511820719059</v>
+        <v>0.04293638693339809</v>
       </c>
       <c r="X28" t="n">
-        <v>0.002894430079672076</v>
+        <v>0.001384627478955017</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0515951763862972</v>
+        <v>0.03804304439887218</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.02780583278396503</v>
+        <v>0.007853601111126788</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03620923031719259</v>
+        <v>0.04992646641235761</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01611266135181245</v>
+        <v>0.01833405824894874</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02581096266883729</v>
+        <v>0.02394492607401189</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1464080348415671</v>
+        <v>0.1930306564379881</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04112652283931589</v>
+        <v>0.06484386004241445</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02940962071828518</v>
+        <v>0.07528053593905837</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0481474141546059</v>
+        <v>0.02562779008773056</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02063629348636726</v>
+        <v>0.02993926700744006</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04047533338785876</v>
+        <v>0.09981103364342478</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002290178870538854</v>
+        <v>0.02774893278133706</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01344751234318014</v>
+        <v>5.545884039758723e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>0.08212606744973733</v>
+        <v>0.05876308783524373</v>
       </c>
       <c r="N29" t="n">
-        <v>0.001861908285197039</v>
+        <v>0.07818253622276089</v>
       </c>
       <c r="O29" t="n">
-        <v>0.09120798302535353</v>
+        <v>0.07978426758402316</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0784476501444151</v>
+        <v>0.08853216708445501</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.08683662260255574</v>
+        <v>0.01298364025259287</v>
       </c>
       <c r="R29" t="n">
-        <v>0.05447223184571103</v>
+        <v>0.02012419816863808</v>
       </c>
       <c r="S29" t="n">
-        <v>0.07582831892555857</v>
+        <v>0.008963140221486834</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02205873778766884</v>
+        <v>0.01687788671450929</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05455335423491824</v>
+        <v>0.0008308480848635544</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03759345816961833</v>
+        <v>0.006085625540459931</v>
       </c>
       <c r="W29" t="n">
-        <v>0.06115142554317187</v>
+        <v>0.08740922564420843</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0002872293332985229</v>
+        <v>0.0004896064746529453</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03031025352473207</v>
+        <v>0.09002481909556248</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.06148604862526071</v>
+        <v>0.06953647765977365</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.02073142264969372</v>
+        <v>0.05732902833109267</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.04551441205295736</v>
+        <v>0.0007765667438738936</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.003457186596530047</v>
+        <v>0.04444965162038098</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_annual.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1516862323536742</v>
+        <v>0.1588460368111074</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0474568657775401</v>
+        <v>0.07700054126458425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09717974856167981</v>
+        <v>0.04972798644600025</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05114840441910328</v>
+        <v>0.07891296682397321</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01910628080270288</v>
+        <v>0.004380961057758153</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05641462768209785</v>
+        <v>0.03870225026195415</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0911826764069727</v>
+        <v>0.01962776015267511</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04838451961874742</v>
+        <v>0.08236898882062581</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001368844611626828</v>
+        <v>0.0008228562329691285</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0156908598785899</v>
+        <v>0.006282670095193112</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007417648104418087</v>
+        <v>0.01257273708299272</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04634636977938805</v>
+        <v>0.06328685618531611</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02653187200491615</v>
+        <v>0.06095752621508826</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08495828581602712</v>
+        <v>0.007458641499828065</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05514074324313453</v>
+        <v>0.04423529301198196</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02614165032227421</v>
+        <v>0.0326590288264908</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001347286989910328</v>
+        <v>0.002154843682456897</v>
       </c>
       <c r="V2" t="n">
-        <v>0.007897243201968728</v>
+        <v>0.01585982036200003</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08532824370052522</v>
+        <v>0.1008112039719405</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03191432664059999</v>
+        <v>0.05341467403828857</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03297899487639711</v>
+        <v>0.00952643655581298</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.07393810837974939</v>
+        <v>0.1002752540763608</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.08222334613453268</v>
+        <v>0.08806019550859796</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.009903053047097807</v>
+        <v>0.0509005078271112</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.10559013179121</v>
+        <v>0.1569408081499378</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2153838957569487</v>
+        <v>0.2146249116276946</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006012819897820504</v>
+        <v>0.005768524047347839</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05327142621692853</v>
+        <v>0.05448111263446578</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06462838519460526</v>
+        <v>0.01442016154170439</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07225668916140904</v>
+        <v>0.02902059526282754</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02586504928267359</v>
+        <v>0.02250335032961909</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05426913609546608</v>
+        <v>0.1125850842054206</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04551340232325497</v>
+        <v>0.1048080162660824</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005211951510966401</v>
+        <v>0.001853811274807991</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07250598826010797</v>
+        <v>0.003993392845164164</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04771243451386253</v>
+        <v>0.1136984414110694</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06585436366262702</v>
+        <v>0.004139404909854346</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07217320956601996</v>
+        <v>0.1170203456825184</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03571921960361438</v>
+        <v>0.002062994291711913</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06356680044852379</v>
+        <v>0.06952624562355333</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06886460625467471</v>
+        <v>0.005178957131098642</v>
       </c>
       <c r="U3" t="n">
-        <v>6.827816756797664e-06</v>
+        <v>0.01001742258942492</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0475745182357839</v>
+        <v>0.004483639728113275</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01680693593115822</v>
+        <v>0.05612089987547601</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01977523425642872</v>
+        <v>0.05875595914069325</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07160149595678938</v>
+        <v>0.007933238696644135</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.02500563066480017</v>
+        <v>0.06116855078521913</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.06313861413310429</v>
+        <v>0.02850989158918382</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.002665261012623783</v>
+        <v>0.1119499601379995</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1058412693455825</v>
+        <v>0.1717004433804159</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2125451649460912</v>
+        <v>0.2414158924066542</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06475166251683126</v>
+        <v>0.06709450760274706</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01083252872351971</v>
+        <v>0.0330218666434625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02799932740110173</v>
+        <v>0.05794682377151639</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02163406516500886</v>
+        <v>0.08243176751657431</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1089950883541914</v>
+        <v>0.02796525219568386</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01260125862276461</v>
+        <v>0.05482227884127638</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01308214296830905</v>
+        <v>0.04416213677064301</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0479728769041454</v>
+        <v>0.09018795740462954</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06362536745264283</v>
+        <v>0.009304941303576267</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05436145790546645</v>
+        <v>0.05404527588718264</v>
       </c>
       <c r="P4" t="n">
-        <v>0.009471012521783478</v>
+        <v>0.0004428004940759327</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.005609726622395107</v>
+        <v>0.003560887472620206</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09762631009800021</v>
+        <v>0.0875174807645262</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09101635457178184</v>
+        <v>0.06571211614052604</v>
       </c>
       <c r="T4" t="n">
-        <v>0.007209939323409091</v>
+        <v>0.04025677613576578</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0220295541617157</v>
+        <v>0.08896372502260713</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001960069002407517</v>
+        <v>0.03613959295713459</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1007540177610462</v>
+        <v>0.01228409621584211</v>
       </c>
       <c r="X4" t="n">
-        <v>0.005436865731413617</v>
+        <v>0.03924645219450483</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08496942207193246</v>
+        <v>0.05735083706540997</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06124051836522294</v>
+        <v>0.03741092734539427</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07469663071548455</v>
+        <v>0.002798171620287707</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01212380303942603</v>
+        <v>0.00733332863401339</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5537239187016033</v>
+        <v>-0.6422546796980082</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.514526632450222</v>
+        <v>0.4216481654301224</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07361144542719222</v>
+        <v>0.04995640328017423</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004624415403180734</v>
+        <v>0.000869889394924528</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07124646601755304</v>
+        <v>0.1050809500553407</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07446516824115186</v>
+        <v>0.06242042389665681</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04556735158388678</v>
+        <v>0.01266172361660683</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0496436104522671</v>
+        <v>0.0125073283454852</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06736905102919793</v>
+        <v>0.04185771435499722</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01413112964618442</v>
+        <v>0.04595176236426114</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01578703462640314</v>
+        <v>0.009325478957632211</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02568056136963266</v>
+        <v>0.08316155265763188</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08185038499987256</v>
+        <v>0.02503956365889011</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0002503947079995052</v>
+        <v>0.01639285340469301</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02405436485208795</v>
+        <v>0.06665974364163922</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06329786300134604</v>
+        <v>0.08972098872025652</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0142026603434765</v>
+        <v>0.02192478768317018</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07968018586876077</v>
+        <v>0.0267470785683654</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03228040084687781</v>
+        <v>0.01769669743866899</v>
       </c>
       <c r="W5" t="n">
-        <v>0.009076352332364248</v>
+        <v>0.09565174128373113</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04927993582505587</v>
+        <v>0.08824341634299022</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0565285583998794</v>
+        <v>0.001089740923809289</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06408721191864206</v>
+        <v>0.03204073317808369</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02051459374194831</v>
+        <v>0.05279107648510264</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06277085936503918</v>
+        <v>0.04220835174688892</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6266074489483778</v>
+        <v>-0.5589303733638036</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2608177278788518</v>
+        <v>0.2445577055276964</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001141240394469136</v>
+        <v>0.01783264882109302</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0751468557345968</v>
+        <v>0.03660700401295174</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06123139039836408</v>
+        <v>0.04714634984098481</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08522024678516923</v>
+        <v>0.04719303260530715</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01569304737813735</v>
+        <v>0.01824818723007508</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04125172976554899</v>
+        <v>0.04726248123106434</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01161161776934439</v>
+        <v>0.02956850194039538</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01165449448781463</v>
+        <v>0.006613766441415303</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01150587806244219</v>
+        <v>0.00750643011018602</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08188223865263314</v>
+        <v>0.0705536135084701</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03457381130855414</v>
+        <v>0.02919688161923314</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01983498098773375</v>
+        <v>0.001522249872934383</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0212738531395409</v>
+        <v>0.09265920022748386</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06050401805578698</v>
+        <v>0.08372404314027809</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03894725930696941</v>
+        <v>0.0841202936768333</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05329162065614446</v>
+        <v>0.06307699824116532</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01091700454730639</v>
+        <v>0.006364783661002463</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1084806693106208</v>
+        <v>0.06497695041795105</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03939979544410484</v>
+        <v>0.05979230802497879</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03316824200031441</v>
+        <v>0.07261650096141538</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.06110681108170263</v>
+        <v>0.08837948564438874</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04244766704676918</v>
+        <v>2.49680374780602e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.07971552768593199</v>
+        <v>0.0250133207329144</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2206606219079868</v>
+        <v>0.2121750077080789</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3246573726195114</v>
+        <v>0.3992962682419841</v>
       </c>
       <c r="F7" t="n">
-        <v>1.431172354191209e-05</v>
+        <v>0.04153765137902524</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04531642171972106</v>
+        <v>0.07547310951908325</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03945243312156886</v>
+        <v>0.01632008483007047</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07330369259319323</v>
+        <v>0.01070826771858457</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07358513748773834</v>
+        <v>0.04847140383878051</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04830863261517997</v>
+        <v>0.0006145732598764111</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07838153074010312</v>
+        <v>0.008039112201915074</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01915971498706175</v>
+        <v>0.01925116995354929</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009969912399384856</v>
+        <v>0.08981755891302001</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0463805506520907</v>
+        <v>0.01688734509498854</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04678207742634782</v>
+        <v>0.02507617361277198</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0553919110684559</v>
+        <v>0.009320457998957012</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0481457151110468</v>
+        <v>0.06610205342160813</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01100376458201473</v>
+        <v>0.02460634933678289</v>
       </c>
       <c r="T7" t="n">
-        <v>0.06422301929814264</v>
+        <v>0.1023247059416084</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02936691527295861</v>
+        <v>0.03086741327397521</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01761574106046239</v>
+        <v>0.1157647316069643</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02388654090330861</v>
+        <v>0.0408386877159185</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01914250943409345</v>
+        <v>0.11011951515794</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.07620593007611209</v>
+        <v>0.01820628785282885</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.04757762506523213</v>
+        <v>0.0293239078588314</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0518238716375259</v>
+        <v>0.02255388708373476</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07496204102471511</v>
+        <v>0.07777555242918513</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.2406162607008728</v>
+        <v>0.3841434140024276</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2711038021746487</v>
+        <v>0.2740557721257694</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001803868831949531</v>
+        <v>0.08379440209804201</v>
       </c>
       <c r="G8" t="n">
-        <v>0.026967494261851</v>
+        <v>0.06349486489963745</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03869364481150564</v>
+        <v>0.003975972204747372</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01739404730957721</v>
+        <v>0.05321830558491093</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001400805058499874</v>
+        <v>0.02293646181787647</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01852051616130964</v>
+        <v>0.03219817993159932</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05297334055762449</v>
+        <v>0.06539306895552809</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05216088112482541</v>
+        <v>0.02126744649506489</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007417917809968201</v>
+        <v>0.008950189011616353</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02692381715548381</v>
+        <v>0.01179297204233967</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07973222797325454</v>
+        <v>0.04156094237426075</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0637798439383787</v>
+        <v>0.06891367367895589</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0833567942313839</v>
+        <v>0.08249266972201216</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06715891806717358</v>
+        <v>0.066621330436459</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06228586416266238</v>
+        <v>0.04143480102532381</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004408509777122927</v>
+        <v>0.0005747150652272894</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0190680167161592</v>
+        <v>0.01444966519773094</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05596327487380559</v>
+        <v>0.07025317187503471</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04697321985598325</v>
+        <v>0.02104311005062241</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.08144195369882547</v>
+        <v>0.06723129184927314</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.08345024746168048</v>
+        <v>0.0601599462356228</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.06858511411201697</v>
+        <v>0.05588008247567046</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.04080040660160807</v>
+        <v>0.04236273697244423</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.07863868342346461</v>
+        <v>0.1118222900081235</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.357692249314231</v>
+        <v>0.3355899301812887</v>
       </c>
       <c r="F9" t="n">
-        <v>0.009588474068156331</v>
+        <v>0.04852206181110189</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02037529870729108</v>
+        <v>0.02542373501344083</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002147726741505304</v>
+        <v>0.01583863242988653</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02062116486750024</v>
+        <v>0.02344387327218946</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09580898713201977</v>
+        <v>0.09878917902809252</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01093840077735336</v>
+        <v>0.03141586771655899</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006877225746657215</v>
+        <v>0.01360524532508345</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01554029675876794</v>
+        <v>0.005717079108322028</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0606812482340857</v>
+        <v>0.07874105726292763</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09041839343828362</v>
+        <v>0.04311953348016985</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02457020374493178</v>
+        <v>0.07045585854531446</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01141164977213203</v>
+        <v>0.009876593555030977</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04063718507558674</v>
+        <v>0.08525191941163818</v>
       </c>
       <c r="S9" t="n">
-        <v>0.06384797291035609</v>
+        <v>0.08079063712573198</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03099573841347841</v>
+        <v>0.07456675238972818</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1002885122096619</v>
+        <v>0.0004459577790353026</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1001446125901848</v>
+        <v>0.09911697171726323</v>
       </c>
       <c r="W9" t="n">
-        <v>0.006364450066702301</v>
+        <v>0.0116092253402012</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0744065039329949</v>
+        <v>0.05573538425739202</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.06925292296843111</v>
+        <v>0.01568752099988377</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.005285077656682713</v>
+        <v>0.004237541191161499</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.04890952946287138</v>
+        <v>0.02909937542927203</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.09088842472436513</v>
+        <v>0.07850999781057409</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2005975577787466</v>
+        <v>0.2135692896278156</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.3616344432819751</v>
+        <v>0.4238758601859445</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01464779175907569</v>
+        <v>0.04726582972630274</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06608895773530432</v>
+        <v>0.02701142012555267</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02124299733817423</v>
+        <v>0.02066285962297705</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07564021434336336</v>
+        <v>0.05497966620109976</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08517499814507409</v>
+        <v>0.09896398350601619</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01317693423953115</v>
+        <v>0.01373978230215595</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02690699895999188</v>
+        <v>0.01487473841518705</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01813311862336738</v>
+        <v>0.1214243649114135</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04044958329284457</v>
+        <v>0.0177807634994685</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03461155693223461</v>
+        <v>0.004038936997248371</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08437342396181502</v>
+        <v>0.05888084344021671</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0532518422726373</v>
+        <v>0.07607566625839321</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03397881432332799</v>
+        <v>0.01046971816030925</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03874319028024392</v>
+        <v>0.01069961023313779</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04804255270988783</v>
+        <v>0.0944280394224243</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005828334532462304</v>
+        <v>0.01292986892127918</v>
       </c>
       <c r="V10" t="n">
-        <v>0.005741529155274515</v>
+        <v>0.02274785193972829</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07898714042016589</v>
+        <v>0.1074428290570988</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04463415723557951</v>
+        <v>0.03120586977519829</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06060788099356531</v>
+        <v>0.1244500368766979</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0512795818965148</v>
+        <v>0.0002675449636102513</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.07681114831281979</v>
+        <v>0.003368414356670089</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02164725253674448</v>
+        <v>0.02629136128781386</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.1458836242684984</v>
+        <v>-0.1948932169126427</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.551432996484049</v>
+        <v>1.177415973328571</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05057865895655824</v>
+        <v>0.07424310272793004</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08745545845606476</v>
+        <v>0.005622174115404762</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04619481452333297</v>
+        <v>0.09579603580551516</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06135248633656984</v>
+        <v>0.02755119891955621</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05608134405945827</v>
+        <v>0.05022860441824364</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02417056885307235</v>
+        <v>0.02647135829326475</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008436360137666661</v>
+        <v>0.08718006133063158</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01772463550258747</v>
+        <v>0.01695648418708114</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07850057163570406</v>
+        <v>0.07942499835431642</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07232604646173837</v>
+        <v>0.08209463844585704</v>
       </c>
       <c r="P11" t="n">
-        <v>0.06217894415151568</v>
+        <v>0.04531197878801218</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.005283381715900174</v>
+        <v>0.04189004420591425</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0826958393684907</v>
+        <v>0.04480420440678532</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00726744758997803</v>
+        <v>0.07093116681179201</v>
       </c>
       <c r="T11" t="n">
-        <v>0.006184503361753948</v>
+        <v>0.02520014076483553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.005962326620462778</v>
+        <v>0.007254742027225473</v>
       </c>
       <c r="V11" t="n">
-        <v>0.08799677964652237</v>
+        <v>0.05504216162204528</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03920507743548229</v>
+        <v>0.01985495775733922</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02749837905602316</v>
+        <v>0.05890523247605881</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.04597744609076355</v>
+        <v>0.02035656335912677</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.05314516660198204</v>
+        <v>0.02472428537294491</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.068901745228595</v>
+        <v>0.02468434520333521</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.004882018209777142</v>
+        <v>0.01547152060678427</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1274916552796612</v>
+        <v>-0.1431703458337011</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1814639854497637</v>
+        <v>0.1848448830903597</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07309371858123347</v>
+        <v>0.05173426071429667</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03716586075198897</v>
+        <v>0.02776646555623737</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0121527457686649</v>
+        <v>0.038707172035578</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1161395126188532</v>
+        <v>0.04537481763721113</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01435476555550424</v>
+        <v>0.01983141006761854</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01759816557718071</v>
+        <v>0.007932308128964571</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002588478604454313</v>
+        <v>0.02595057643955742</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07991424132138372</v>
+        <v>0.08442783284107352</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01598129294906532</v>
+        <v>0.03648531882698258</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06918080799102232</v>
+        <v>0.08335723234905769</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1002788934201628</v>
+        <v>0.08759491969023188</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03276001254324807</v>
+        <v>0.01499005452169955</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1025821075160284</v>
+        <v>0.07703490147842193</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02224234726805837</v>
+        <v>0.03144703728561646</v>
       </c>
       <c r="T12" t="n">
-        <v>0.03635624323232708</v>
+        <v>0.03696926880159203</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01270438224500565</v>
+        <v>0.04511064277960807</v>
       </c>
       <c r="V12" t="n">
-        <v>0.007325531185167865</v>
+        <v>0.0754346985005634</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05058849480074799</v>
+        <v>0.06087291525431412</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04929409353077363</v>
+        <v>0.02294817559667535</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.03858013942192622</v>
+        <v>0.006514808316185531</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.04586291705327002</v>
+        <v>0.08308946633161104</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.04269120616473592</v>
+        <v>0.03015672013062892</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02289367264320559</v>
+        <v>0.006268996716274089</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1819993308417833</v>
+        <v>0.1775940895285582</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2324664244715633</v>
+        <v>0.2384357213542734</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09262875191708099</v>
+        <v>0.1021092640762821</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06579436679343205</v>
+        <v>0.01568049344536434</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01541064909591336</v>
+        <v>0.02723179686018686</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04098037778554472</v>
+        <v>0.003982995542286656</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0402357434685173</v>
+        <v>0.06758954990424852</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1079114111779579</v>
+        <v>0.02197674354171031</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006241151501406907</v>
+        <v>0.006897198112519034</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01006265372070882</v>
+        <v>0.02866474937450238</v>
       </c>
       <c r="N13" t="n">
-        <v>0.07340065480665131</v>
+        <v>0.1152995365122887</v>
       </c>
       <c r="O13" t="n">
-        <v>0.008431805525958694</v>
+        <v>0.1195485554586767</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01226672222459599</v>
+        <v>0.02755715054153832</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01359139884251402</v>
+        <v>0.02378740756304568</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07178006015642961</v>
+        <v>0.1417545326681444</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08660248359828719</v>
+        <v>0.001661896556798629</v>
       </c>
       <c r="T13" t="n">
-        <v>0.005815883316081613</v>
+        <v>0.03260322210148865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05100055708903871</v>
+        <v>0.002465625509330833</v>
       </c>
       <c r="V13" t="n">
-        <v>0.006424462717242755</v>
+        <v>0.03413080661296766</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08993048022154286</v>
+        <v>0.124082055613827</v>
       </c>
       <c r="X13" t="n">
-        <v>0.08580877821649698</v>
+        <v>0.01194137444604743</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01234604912363849</v>
+        <v>0.01562198152335668</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01165182713805858</v>
+        <v>0.0295034067739726</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.07938753502207781</v>
+        <v>0.02808731241034504</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0122961965408233</v>
+        <v>0.01782234485107146</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2401270006740394</v>
+        <v>0.1818157329640047</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2267464669484835</v>
+        <v>0.2172607176495693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.007415825418354564</v>
+        <v>0.06715955956115509</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09352007422579868</v>
+        <v>0.0203907309063375</v>
       </c>
       <c r="H14" t="n">
-        <v>0.058062524475128</v>
+        <v>0.03092977683222757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01946159502420697</v>
+        <v>0.05172797820140758</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01974100936778341</v>
+        <v>0.0854467753722435</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06734176819444668</v>
+        <v>0.001913829968874008</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02310804256631157</v>
+        <v>0.03434946305115567</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02180340778849616</v>
+        <v>0.02274580315773428</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01231249761260931</v>
+        <v>0.07029195272897498</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07784167071016594</v>
+        <v>0.006532480723971011</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06072394199449537</v>
+        <v>0.0707810278848038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0279174709932449</v>
+        <v>0.08799666646779784</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08465275974637297</v>
+        <v>0.08246715096279905</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06567276874022718</v>
+        <v>0.07851825620456787</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01199164914984594</v>
+        <v>0.02865810585697029</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05311317055750504</v>
+        <v>0.05827579442689038</v>
       </c>
       <c r="V14" t="n">
-        <v>0.07877913897210582</v>
+        <v>0.09019321087285181</v>
       </c>
       <c r="W14" t="n">
-        <v>0.007505291417311747</v>
+        <v>0.0008474876938056129</v>
       </c>
       <c r="X14" t="n">
-        <v>0.004082877950821634</v>
+        <v>0.001789052164160249</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02903452022460525</v>
+        <v>0.02008902454790404</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.096452985282625</v>
+        <v>0.06678168109881515</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.07797380597765277</v>
+        <v>0.00661464120988409</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.001491203609885024</v>
+        <v>0.01549955010466864</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2015489830203613</v>
+        <v>0.1557858288607722</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.145061146610533</v>
+        <v>0.3853914660150309</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001904445656825304</v>
+        <v>0.03173680857224954</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06532353428797152</v>
+        <v>0.07996745831300556</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02002497502115332</v>
+        <v>0.02879273227342352</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05475510565766169</v>
+        <v>0.07260047016683903</v>
       </c>
       <c r="J15" t="n">
-        <v>0.105223803592266</v>
+        <v>0.02401899583757255</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02051402212075304</v>
+        <v>0.09287593220645922</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04363832916260099</v>
+        <v>0.0902030693335206</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02533430222505124</v>
+        <v>0.01650575376790574</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01563538757371005</v>
+        <v>0.002697916000611706</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06833912233611765</v>
+        <v>0.05599393088578417</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1005116358501722</v>
+        <v>0.03737428672260822</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.06269830153918837</v>
+        <v>0.01657704236194494</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03833844395037914</v>
+        <v>0.01886302734712945</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06145283063883641</v>
+        <v>0.05220269757796922</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001812712766976288</v>
+        <v>0.09739605488160574</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04019610843540105</v>
+        <v>0.05318164362382365</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02104141529197307</v>
+        <v>0.02771522551105728</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001652817659710915</v>
+        <v>0.003788769602300852</v>
       </c>
       <c r="X15" t="n">
-        <v>0.00675567727815729</v>
+        <v>0.01985226708941638</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0601913369299783</v>
+        <v>0.004412486173148281</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0711113621696514</v>
+        <v>0.08640431069059377</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.02225162520107314</v>
+        <v>0.01398577146117246</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.09129270465439175</v>
+        <v>0.07285334959985798</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1805776681175887</v>
+        <v>0.2485130745104423</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2404393034204569</v>
+        <v>0.2986159941942825</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1000319155519975</v>
+        <v>0.08694966650398711</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08155150114882678</v>
+        <v>0.08868518870475982</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02507574332997812</v>
+        <v>0.005620119701126668</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009278798432348698</v>
+        <v>0.00503789066209729</v>
       </c>
       <c r="J16" t="n">
-        <v>0.007010883673754701</v>
+        <v>0.05349542568575064</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01133499474339628</v>
+        <v>0.04859958750089569</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001005443323803074</v>
+        <v>0.04858713144394591</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04933912640273837</v>
+        <v>0.09163859631350343</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1055443420040442</v>
+        <v>0.0576360656865446</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06892780539542243</v>
+        <v>0.09342057014163994</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01795574026305152</v>
+        <v>0.09630066783835661</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06513602006801947</v>
+        <v>0.06054692582949145</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05085900836280677</v>
+        <v>0.04047063338534485</v>
       </c>
       <c r="S16" t="n">
-        <v>0.006988101689709841</v>
+        <v>0.02250286717110209</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01021380372508409</v>
+        <v>0.009875811587936286</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0009763728813966206</v>
+        <v>0.002378785702262271</v>
       </c>
       <c r="V16" t="n">
-        <v>0.001201385095473313</v>
+        <v>0.006553083300440846</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04994002852397916</v>
+        <v>0.001274487219490967</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1084189723274963</v>
+        <v>0.02649840920756449</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.06089458289254675</v>
+        <v>0.07395726951642309</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1079929208371941</v>
+        <v>0.02436747431855013</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.02140620193205679</v>
+        <v>0.02314101348349566</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03891630739487516</v>
+        <v>0.03246232909528991</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.04026130921775196</v>
+        <v>-0.007929441062452365</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.838516763114543</v>
+        <v>0.534122564628467</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03355916488704135</v>
+        <v>0.0631549928064888</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01748052250437106</v>
+        <v>0.03562162990918559</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07384189314287931</v>
+        <v>0.008007969282927411</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08700913297108144</v>
+        <v>0.07139010675618124</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02311627687224998</v>
+        <v>0.03619269875228145</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07203892188856423</v>
+        <v>0.06778473569420056</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07730371744148865</v>
+        <v>0.06913542876179599</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08677373915682461</v>
+        <v>0.0129943550388068</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06496713009892974</v>
+        <v>0.07206073204254218</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01281494008013863</v>
+        <v>0.05716730373378795</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06314342578381921</v>
+        <v>0.07457489726484161</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01166767839294774</v>
+        <v>0.02819778179590006</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0559306672840113</v>
+        <v>0.03482409564037213</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08008953962318661</v>
+        <v>0.007416930347590786</v>
       </c>
       <c r="T17" t="n">
-        <v>0.002951949344237029</v>
+        <v>0.03625700944311842</v>
       </c>
       <c r="U17" t="n">
-        <v>0.003709042496701283</v>
+        <v>0.02993240158520439</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0006240502296430057</v>
+        <v>0.01623207512951162</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06874159569350584</v>
+        <v>0.06903542474836248</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02500637097408183</v>
+        <v>0.0444211446962323</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.004651338966845354</v>
+        <v>0.007406890298984376</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.08580169895502317</v>
+        <v>0.07464024595277224</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.005397158459317587</v>
+        <v>0.0744417272295762</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.04338004475311083</v>
+        <v>0.009109423089335248</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.02735981661359092</v>
+        <v>0.01336789697259665</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2851300633009055</v>
+        <v>0.1644155421449354</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05976604890249666</v>
+        <v>0.0961185764494758</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03747644182112782</v>
+        <v>0.09968134021584801</v>
       </c>
       <c r="H18" t="n">
-        <v>0.006346677900992438</v>
+        <v>0.01496650052440109</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01803357448281062</v>
+        <v>0.0005600055907574322</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0735805840742234</v>
+        <v>0.04965901197605599</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06787438449420569</v>
+        <v>0.09056931462148687</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06442040626479816</v>
+        <v>0.06806606128401621</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04926166594385311</v>
+        <v>0.02169557971776746</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04974132281604931</v>
+        <v>0.07617166435012898</v>
       </c>
       <c r="O18" t="n">
-        <v>0.06377871631380498</v>
+        <v>0.01230127496698816</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0563407813188714</v>
+        <v>0.07875122455244608</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00288934913867839</v>
+        <v>0.01905050820927658</v>
       </c>
       <c r="R18" t="n">
-        <v>0.006153276938853797</v>
+        <v>0.01543280203578008</v>
       </c>
       <c r="S18" t="n">
-        <v>0.00477455360503105</v>
+        <v>0.002018870027597057</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0852302397564291</v>
+        <v>0.07249014455320162</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06274499703461707</v>
+        <v>0.07667607000811559</v>
       </c>
       <c r="V18" t="n">
-        <v>0.006856010778263547</v>
+        <v>0.03981706090656179</v>
       </c>
       <c r="W18" t="n">
-        <v>0.001978911916820866</v>
+        <v>0.003680966909345237</v>
       </c>
       <c r="X18" t="n">
-        <v>0.02818033461107063</v>
+        <v>0.008421428780834636</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.04203751875942602</v>
+        <v>0.0471649129393378</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.07540257252389142</v>
+        <v>0.05720915525809191</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.06115805995530188</v>
+        <v>0.00624590994297463</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.07597357064838253</v>
+        <v>0.0432516161795111</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.08810829926943783</v>
+        <v>0.1243236406798293</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.820983173012095</v>
+        <v>0.7149269615976624</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07606304595764379</v>
+        <v>0.01636667469940909</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05211912659541648</v>
+        <v>0.08814497814339119</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01166708647062641</v>
+        <v>0.08891396576259857</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02070169390054904</v>
+        <v>0.0895686906194344</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07315327036423409</v>
+        <v>0.02747347188078936</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06450680459687544</v>
+        <v>0.03249106576326908</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06109416378541024</v>
+        <v>0.07969694244944063</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06791557734350948</v>
+        <v>0.03243923530143528</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03096277691878747</v>
+        <v>0.005995640610422877</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01633153936131096</v>
+        <v>0.01633637230980549</v>
       </c>
       <c r="P19" t="n">
-        <v>0.07089696903728591</v>
+        <v>0.04727864396048693</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.003166759738838941</v>
+        <v>0.0119729912723074</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06369930384853344</v>
+        <v>0.02055014939283486</v>
       </c>
       <c r="S19" t="n">
-        <v>2.312403958239588e-06</v>
+        <v>0.09174711750208725</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03023967189673298</v>
+        <v>0.08886041396279831</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01224527516545681</v>
+        <v>0.04800691210636884</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02903716663184544</v>
+        <v>0.08159130188909694</v>
       </c>
       <c r="W19" t="n">
-        <v>0.07119526787596359</v>
+        <v>0.01172619759273884</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02567075836669661</v>
+        <v>0.02316702856775708</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06908052977851976</v>
+        <v>0.02217355376929672</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.06189804059597658</v>
+        <v>0.05506778668181106</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.03590266721900207</v>
+        <v>0.01041072822573241</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.05245019214682627</v>
+        <v>0.01002013753668747</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1030911084170129</v>
+        <v>0.1688672931566585</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1614912207036258</v>
+        <v>0.1631379394963398</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0774796292825457</v>
+        <v>0.08595341572668373</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02820738155208567</v>
+        <v>0.01950064148186779</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05944331483599694</v>
+        <v>0.003474053306131192</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0272066350619866</v>
+        <v>0.05439082231762425</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02713398348982515</v>
+        <v>0.08349825427513287</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03286401798167215</v>
+        <v>0.004635730532881596</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04627086127020322</v>
+        <v>0.006634378374589362</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02394970419859606</v>
+        <v>0.06937705244973701</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01605730385918882</v>
+        <v>0.02463684741669372</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02628531661150143</v>
+        <v>0.03545344960275154</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01880467049658862</v>
+        <v>0.008407701990166418</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01684025092851965</v>
+        <v>0.008890401007688894</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07846290212375034</v>
+        <v>0.07859507994261165</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0724146979710746</v>
+        <v>0.08093761842388969</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01957966500805689</v>
+        <v>0.05453590720190461</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06420695248214796</v>
+        <v>0.06742087517016669</v>
       </c>
       <c r="V20" t="n">
-        <v>0.003303544626678575</v>
+        <v>0.001810051228873713</v>
       </c>
       <c r="W20" t="n">
-        <v>0.05087914596682575</v>
+        <v>0.04248419273841035</v>
       </c>
       <c r="X20" t="n">
-        <v>0.06707587575751363</v>
+        <v>0.0741046198688745</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.07690575161315848</v>
+        <v>0.001387135871889993</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.04761644984467184</v>
+        <v>0.04220726527106833</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.05027643014579687</v>
+        <v>0.08596658129805844</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06873551489161496</v>
+        <v>0.06569792450230331</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1187388106597019</v>
+        <v>0.1195450499911382</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4087157524885831</v>
+        <v>0.2033909211027964</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06413050266790471</v>
+        <v>0.09735631011492568</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06085965387263343</v>
+        <v>0.01864418349922766</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0573798808710476</v>
+        <v>0.07275364906294811</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06411166495300838</v>
+        <v>0.02565537067790677</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03810719738771644</v>
+        <v>0.05743900417001055</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003230161854118331</v>
+        <v>0.07676104405567288</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05181422752518243</v>
+        <v>0.02564443169201668</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1108642430822283</v>
+        <v>0.09431573568117603</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02321033046677783</v>
+        <v>0.01007019103551254</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01713318616889675</v>
+        <v>0.0294509794724934</v>
       </c>
       <c r="P21" t="n">
-        <v>0.009077181473021204</v>
+        <v>0.01102266802195152</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.004729032553067258</v>
+        <v>0.04831583757712255</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07653788193028005</v>
+        <v>0.04794830991483325</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03691713121675224</v>
+        <v>0.09235572789238806</v>
       </c>
       <c r="T21" t="n">
-        <v>0.001924323930331233</v>
+        <v>0.03806463335820089</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03162108448214369</v>
+        <v>0.06294696925498522</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1086641614226678</v>
+        <v>0.05287818307490891</v>
       </c>
       <c r="W21" t="n">
-        <v>0.03161023569895631</v>
+        <v>0.06106760933123404</v>
       </c>
       <c r="X21" t="n">
-        <v>0.06845734888837227</v>
+        <v>0.01140847986338402</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.05926601372950895</v>
+        <v>0.02926729071984658</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02162859595397277</v>
+        <v>0.01739191187867974</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.04525322244775423</v>
+        <v>0.009131792824123814</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01347273742365791</v>
+        <v>0.0101096868264511</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1048707132341026</v>
+        <v>0.1141721250941084</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.2421465267813748</v>
+        <v>0.2066819518762127</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01327500537631861</v>
+        <v>0.06267575227013374</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04839750904971669</v>
+        <v>0.0703337224653906</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08048170592443134</v>
+        <v>0.03714249137777401</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0264615046106872</v>
+        <v>0.006785894844895174</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03621716416605607</v>
+        <v>0.02353652478778991</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03558447301927239</v>
+        <v>0.06695129105478985</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05091518714416861</v>
+        <v>0.1101242578885858</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01090944602438824</v>
+        <v>0.0818892368099481</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0900043827531077</v>
+        <v>0.04610021339112453</v>
       </c>
       <c r="O22" t="n">
-        <v>0.07559184473560994</v>
+        <v>0.0117234072385253</v>
       </c>
       <c r="P22" t="n">
-        <v>0.09014597667257358</v>
+        <v>0.1159850260805384</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1047750432674377</v>
+        <v>0.02357405821708502</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1039088237529122</v>
+        <v>0.008127346697756475</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0008144121511281501</v>
+        <v>0.004406301807919772</v>
       </c>
       <c r="T22" t="n">
-        <v>0.004169242573496789</v>
+        <v>0.007302376012196759</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004061609505251606</v>
+        <v>0.1223854496475494</v>
       </c>
       <c r="V22" t="n">
-        <v>0.002989976427528552</v>
+        <v>0.00938582732981798</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07409895095210195</v>
+        <v>0.08539826306869622</v>
       </c>
       <c r="X22" t="n">
-        <v>0.01503727383639788</v>
+        <v>0.03846611262785683</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.02881627498652484</v>
+        <v>0.01124800097420168</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.00730402667258844</v>
+        <v>0.05355379472855475</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0007097166022897424</v>
+        <v>0.002428670421998168</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.09533044979601171</v>
+        <v>0.0004759802568715448</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.08880714469767767</v>
+        <v>0.04705371038395056</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.575655632677764</v>
+        <v>0.8951378135425161</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04291119914985222</v>
+        <v>0.142389275730587</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1011122071963119</v>
+        <v>0.0005443352201751613</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03664106233159117</v>
+        <v>0.05271723435096708</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08180658131874091</v>
+        <v>0.04200492739567125</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001706857787947745</v>
+        <v>0.01849007413829759</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04017985540395833</v>
+        <v>0.02051273734227063</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03583168836729626</v>
+        <v>0.003076665707925182</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008839176091315322</v>
+        <v>0.04914698213105217</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01290103001363059</v>
+        <v>0.00717936157389684</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03748754897716719</v>
+        <v>0.004162922264542885</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01155038889120674</v>
+        <v>0.03035030319914847</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1030276773704883</v>
+        <v>0.0486565395893489</v>
       </c>
       <c r="R23" t="n">
-        <v>0.00970650663820472</v>
+        <v>0.1322984955278149</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02110082249647851</v>
+        <v>0.1342671751139161</v>
       </c>
       <c r="T23" t="n">
-        <v>0.001672813255493146</v>
+        <v>0.01066922082809889</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03290258566184018</v>
+        <v>0.06257443368106246</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1035738393650186</v>
+        <v>0.08780078907076236</v>
       </c>
       <c r="W23" t="n">
-        <v>0.1258999372560392</v>
+        <v>0.02062353107117692</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01400332001871384</v>
+        <v>0.06238478870599565</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.110250696026255</v>
+        <v>0.04035076340987099</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.05492803583183641</v>
+        <v>0.01671045272516841</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.005571358983131575</v>
+        <v>0.002483871707606279</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.007930983576635272</v>
+        <v>0.01060511951464407</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.1347052698572944</v>
+        <v>0.07499123292960645</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1572711193478302</v>
+        <v>0.1600192863746284</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04665843724371047</v>
+        <v>0.05799235321414033</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08541669959948195</v>
+        <v>0.07072621867351971</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08430437128569442</v>
+        <v>0.07546314262189985</v>
       </c>
       <c r="I24" t="n">
-        <v>0.007892303701070786</v>
+        <v>0.03831492679929525</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03847211931335524</v>
+        <v>0.03558824390555457</v>
       </c>
       <c r="K24" t="n">
-        <v>0.009648943965574535</v>
+        <v>0.04856604805858195</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009158697719651474</v>
+        <v>0.0652740001992274</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0066791981875584</v>
+        <v>0.004952621503237649</v>
       </c>
       <c r="N24" t="n">
-        <v>0.04005967872366083</v>
+        <v>0.05453361291076365</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003285923919596698</v>
+        <v>0.002585075111935606</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07070637326523982</v>
+        <v>0.06288460886894147</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05093912437045599</v>
+        <v>0.05563538383100373</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08567404527009034</v>
+        <v>0.07634872720521227</v>
       </c>
       <c r="S24" t="n">
-        <v>0.05848062998276106</v>
+        <v>0.004015512051943155</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03634308894917902</v>
+        <v>0.02697082380528248</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0790663528484507</v>
+        <v>0.003545670894762767</v>
       </c>
       <c r="V24" t="n">
-        <v>0.07735504614553004</v>
+        <v>0.06340504430971224</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02819688490884678</v>
+        <v>0.01817425500536735</v>
       </c>
       <c r="X24" t="n">
-        <v>0.08014390126893312</v>
+        <v>0.04283605745251568</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.009181824812551998</v>
+        <v>0.01987772883918981</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06397325448513777</v>
+        <v>0.07477452840879838</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01593346507553038</v>
+        <v>0.04385113927255289</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01242963495793816</v>
+        <v>0.05368427705656171</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.2139099522638939</v>
+        <v>-0.2514461386044626</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3292510855956301</v>
+        <v>0.4624028108164472</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06793482473396202</v>
+        <v>0.1004140339635165</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04540697985038891</v>
+        <v>0.1080640365295426</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04587797870295927</v>
+        <v>0.01849092337343243</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01571629829672654</v>
+        <v>0.004054459631026469</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04867742285304526</v>
+        <v>0.03775954502938665</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02898760878157646</v>
+        <v>0.01920141069312358</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006212133833414742</v>
+        <v>0.03642073455929215</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06873362553647194</v>
+        <v>0.1048347128737377</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0385086385722016</v>
+        <v>0.03817154153188491</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0005099793931606607</v>
+        <v>0.004617798279817552</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05881461445831541</v>
+        <v>0.02127467999102571</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.07655897201201714</v>
+        <v>0.05055911979961197</v>
       </c>
       <c r="R25" t="n">
-        <v>0.06536456103937469</v>
+        <v>0.06977372166979201</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0288737721349206</v>
+        <v>0.005756841035972762</v>
       </c>
       <c r="T25" t="n">
-        <v>0.06174002878382284</v>
+        <v>0.007243126107799584</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05054818152420215</v>
+        <v>0.02048798705498536</v>
       </c>
       <c r="V25" t="n">
-        <v>0.08258900546156793</v>
+        <v>0.0990020743767136</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01106035341520227</v>
+        <v>0.007247425448053966</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02496520838081975</v>
+        <v>0.06225999419642728</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.08285675422136825</v>
+        <v>0.0291163343512485</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02383818927534562</v>
+        <v>0.03950908928029623</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.006716902010318902</v>
+        <v>0.0138127383370324</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.05950796672881705</v>
+        <v>0.1019276718862801</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.1925158560902323</v>
+        <v>-0.1572611063694041</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1196038878462247</v>
+        <v>0.1188758661652794</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05387308941877064</v>
+        <v>0.07520627666273239</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08323204507415728</v>
+        <v>0.092085065950182</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01013058981376554</v>
+        <v>0.04281728578651923</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02680080360952095</v>
+        <v>0.05196750561932612</v>
       </c>
       <c r="J26" t="n">
-        <v>0.09703127559304207</v>
+        <v>0.004178135019150286</v>
       </c>
       <c r="K26" t="n">
-        <v>0.005932143633012302</v>
+        <v>0.007262030182281898</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004199931560988643</v>
+        <v>0.05201721854792293</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002430664051661882</v>
+        <v>0.01454080082822934</v>
       </c>
       <c r="N26" t="n">
-        <v>0.056683837909196</v>
+        <v>0.01714778008671847</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02392279342326674</v>
+        <v>0.01191591191985152</v>
       </c>
       <c r="P26" t="n">
-        <v>0.08354756905704913</v>
+        <v>0.09515105742783075</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.07924030855585039</v>
+        <v>0.09681481021448747</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01486257832658815</v>
+        <v>0.06156131308025429</v>
       </c>
       <c r="S26" t="n">
-        <v>0.04070035074534736</v>
+        <v>0.004411122000577991</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01365855635809954</v>
+        <v>0.07343581632356586</v>
       </c>
       <c r="U26" t="n">
-        <v>0.005744347380662457</v>
+        <v>0.07708650071714231</v>
       </c>
       <c r="V26" t="n">
-        <v>0.02299539539847611</v>
+        <v>0.0003955241094539645</v>
       </c>
       <c r="W26" t="n">
-        <v>0.07385696638284728</v>
+        <v>0.05140170741569321</v>
       </c>
       <c r="X26" t="n">
-        <v>0.08561342226761849</v>
+        <v>0.1091005206258127</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.003664116604117006</v>
+        <v>0.01825152647331393</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.05743426953651226</v>
+        <v>0.02183870582317038</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.06684041080904832</v>
+        <v>0.001519031937051574</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.08760453449040174</v>
+        <v>0.01989435324873151</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.1725951200400995</v>
+        <v>0.1693744719191226</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.1735373407761849</v>
+        <v>0.1790994661794387</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09564878743748931</v>
+        <v>0.09850417863244602</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0817393983188085</v>
+        <v>0.03872273149002235</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03447757317667741</v>
+        <v>0.003496313879980348</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03021907401184989</v>
+        <v>0.02902582799052891</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02194626746804133</v>
+        <v>0.006310867667427428</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05611590707234815</v>
+        <v>0.01017443557567802</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04698404117812611</v>
+        <v>0.008026479400368585</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1138930436615049</v>
+        <v>0.1115786319948792</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03869052070206104</v>
+        <v>0.008349908103346342</v>
       </c>
       <c r="O27" t="n">
-        <v>0.005268296167094651</v>
+        <v>0.06297042634229107</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03312074083205768</v>
+        <v>0.1001003365491223</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.05982759430062361</v>
+        <v>0.002565527391885512</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05553136657241683</v>
+        <v>0.05037998909810337</v>
       </c>
       <c r="S27" t="n">
-        <v>0.003739472747393792</v>
+        <v>0.0003863539514109807</v>
       </c>
       <c r="T27" t="n">
-        <v>0.009109852804192383</v>
+        <v>0.03649251303127041</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09704725604822444</v>
+        <v>0.1161524708860902</v>
       </c>
       <c r="V27" t="n">
-        <v>0.08777366771859932</v>
+        <v>0.07763669877033115</v>
       </c>
       <c r="W27" t="n">
-        <v>0.008882604423830535</v>
+        <v>0.02109125566571944</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0506751720319597</v>
+        <v>0.02035298803344351</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.02263185486212138</v>
+        <v>0.05001700125358111</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.003000399672977135</v>
+        <v>0.01468047787060063</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01663373674211693</v>
+        <v>0.0380811990839607</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02704337204948501</v>
+        <v>0.09490338733751241</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.1660360584265225</v>
+        <v>0.1959373634708947</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1474351097026994</v>
+        <v>0.1391776576932503</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0237088115205915</v>
+        <v>0.008756667240066037</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007055298503803827</v>
+        <v>0.01617482849121875</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01521352198832261</v>
+        <v>0.02929000235833514</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04183311895893246</v>
+        <v>0.03097986565520613</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02650411385299056</v>
+        <v>0.06783872041513202</v>
       </c>
       <c r="K28" t="n">
-        <v>0.08018084850340237</v>
+        <v>0.03327036556862934</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08334501943384702</v>
+        <v>0.07164481238039372</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01149534995345526</v>
+        <v>0.06892683364075963</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0651223755504723</v>
+        <v>0.02537566714290543</v>
       </c>
       <c r="O28" t="n">
-        <v>0.08351590665109705</v>
+        <v>0.04181157774922842</v>
       </c>
       <c r="P28" t="n">
-        <v>0.09068170629717169</v>
+        <v>0.06253453515633511</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05078938538195961</v>
+        <v>0.08097271511706775</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0821495519142702</v>
+        <v>0.07488496094910849</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0917618239673517</v>
+        <v>0.07896737384054996</v>
       </c>
       <c r="T28" t="n">
-        <v>0.006323186241291811</v>
+        <v>0.008971082834663342</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06341448663669444</v>
+        <v>0.0497467412099328</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01842731006068709</v>
+        <v>0.05291815156392621</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04293638693339809</v>
+        <v>0.07748292640471725</v>
       </c>
       <c r="X28" t="n">
-        <v>0.001384627478955017</v>
+        <v>0.0185643953695053</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.03804304439887218</v>
+        <v>0.02890380403540935</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.007853601111126788</v>
+        <v>0.008860070102010717</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.04992646641235761</v>
+        <v>0.0179186740720408</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01833405824894874</v>
+        <v>0.04520522870285849</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02394492607401189</v>
+        <v>0.02272725869068091</v>
       </c>
     </row>
     <row r="29">
@@ -3160,82 +3160,82 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1930306564379881</v>
+        <v>0.1503410094277718</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06484386004241445</v>
+        <v>0.02166425066157233</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07528053593905837</v>
+        <v>0.02376507143596479</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02562779008773056</v>
+        <v>0.0627477525929311</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02993926700744006</v>
+        <v>0.09137703533148168</v>
       </c>
       <c r="J29" t="n">
-        <v>0.09981103364342478</v>
+        <v>0.08181280951052061</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02774893278133706</v>
+        <v>0.003232624141010214</v>
       </c>
       <c r="L29" t="n">
-        <v>5.545884039758723e-05</v>
+        <v>0.00124347229985029</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05876308783524373</v>
+        <v>0.05929069557287127</v>
       </c>
       <c r="N29" t="n">
-        <v>0.07818253622276089</v>
+        <v>0.06992689409561213</v>
       </c>
       <c r="O29" t="n">
-        <v>0.07978426758402316</v>
+        <v>0.05540022026065503</v>
       </c>
       <c r="P29" t="n">
-        <v>0.08853216708445501</v>
+        <v>0.04185257466020784</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01298364025259287</v>
+        <v>0.02493140962754473</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02012419816863808</v>
+        <v>0.08407476560369083</v>
       </c>
       <c r="S29" t="n">
-        <v>0.008963140221486834</v>
+        <v>0.06399491410708348</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01687788671450929</v>
+        <v>0.002431558861958668</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0008308480848635544</v>
+        <v>0.01016870047175106</v>
       </c>
       <c r="V29" t="n">
-        <v>0.006085625540459931</v>
+        <v>0.0256072415480945</v>
       </c>
       <c r="W29" t="n">
-        <v>0.08740922564420843</v>
+        <v>0.08434992177827468</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0004896064746529453</v>
+        <v>0.006200425623704009</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.09002481909556248</v>
+        <v>0.06591836304943419</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.06953647765977365</v>
+        <v>0.07818036672712245</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.05732902833109267</v>
+        <v>0.04002624312913208</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0007765667438738936</v>
+        <v>0.001802688909532164</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.04444965162038098</v>
+        <v>0.0004393102680317901</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>